--- a/analysis/5.1/td_0.08s.xlsx
+++ b/analysis/5.1/td_0.08s.xlsx
@@ -74,7 +74,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D57"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="true"/>
@@ -172,13 +172,13 @@
         <v>30.100000000000001</v>
       </c>
       <c r="B7">
-        <v>1.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C7">
         <v>0.080000000000000002</v>
       </c>
       <c r="D7">
-        <v>270.91392000000292</v>
+        <v>388.35403999999954</v>
       </c>
     </row>
     <row r="8">
@@ -186,13 +186,13 @@
         <v>30.100000000000001</v>
       </c>
       <c r="B8">
-        <v>2.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C8">
         <v>0.080000000000000002</v>
       </c>
       <c r="D8">
-        <v>253.00189999999668</v>
+        <v>270.91392000000292</v>
       </c>
     </row>
     <row r="9">
@@ -200,13 +200,13 @@
         <v>30.100000000000001</v>
       </c>
       <c r="B9">
-        <v>3.1000000000000001</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C9">
         <v>0.080000000000000002</v>
       </c>
       <c r="D9">
-        <v>275.77364000000193</v>
+        <v>253.00189999999668</v>
       </c>
     </row>
     <row r="10">
@@ -214,27 +214,27 @@
         <v>30.100000000000001</v>
       </c>
       <c r="B10">
-        <v>4.0999999999999996</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C10">
         <v>0.080000000000000002</v>
       </c>
       <c r="D10">
-        <v>260.80429999999683</v>
+        <v>275.77364000000193</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>40.100000000000001</v>
+        <v>30.100000000000001</v>
       </c>
       <c r="B11">
-        <v>0.10000000000000001</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C11">
         <v>0.080000000000000002</v>
       </c>
       <c r="D11">
-        <v>256.58193333333418</v>
+        <v>260.80429999999683</v>
       </c>
     </row>
     <row r="12">
@@ -242,13 +242,13 @@
         <v>40.100000000000001</v>
       </c>
       <c r="B12">
-        <v>1.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C12">
         <v>0.080000000000000002</v>
       </c>
       <c r="D12">
-        <v>248.57156000000131</v>
+        <v>256.58193333333418</v>
       </c>
     </row>
     <row r="13">
@@ -256,13 +256,13 @@
         <v>40.100000000000001</v>
       </c>
       <c r="B13">
-        <v>2.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C13">
         <v>0.080000000000000002</v>
       </c>
       <c r="D13">
-        <v>277.59244000000024</v>
+        <v>248.57156000000131</v>
       </c>
     </row>
     <row r="14">
@@ -270,13 +270,13 @@
         <v>40.100000000000001</v>
       </c>
       <c r="B14">
-        <v>3.1000000000000001</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C14">
         <v>0.080000000000000002</v>
       </c>
       <c r="D14">
-        <v>277.93231999999921</v>
+        <v>277.59244000000024</v>
       </c>
     </row>
     <row r="15">
@@ -284,27 +284,27 @@
         <v>40.100000000000001</v>
       </c>
       <c r="B15">
-        <v>4.0999999999999996</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C15">
         <v>0.080000000000000002</v>
       </c>
       <c r="D15">
-        <v>276.69220000000257</v>
+        <v>277.93231999999921</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>50.100000000000001</v>
+        <v>40.100000000000001</v>
       </c>
       <c r="B16">
-        <v>0.10000000000000001</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C16">
         <v>0.080000000000000002</v>
       </c>
       <c r="D16">
-        <v>242.49310000000219</v>
+        <v>276.69220000000257</v>
       </c>
     </row>
     <row r="17">
@@ -312,13 +312,13 @@
         <v>50.100000000000001</v>
       </c>
       <c r="B17">
-        <v>1.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C17">
         <v>0.080000000000000002</v>
       </c>
       <c r="D17">
-        <v>230.57674285714216</v>
+        <v>242.49310000000219</v>
       </c>
     </row>
     <row r="18">
@@ -326,13 +326,13 @@
         <v>50.100000000000001</v>
       </c>
       <c r="B18">
-        <v>2.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C18">
         <v>0.080000000000000002</v>
       </c>
       <c r="D18">
-        <v>276.27119999999968</v>
+        <v>230.57674285714216</v>
       </c>
     </row>
     <row r="19">
@@ -340,13 +340,13 @@
         <v>50.100000000000001</v>
       </c>
       <c r="B19">
-        <v>3.1000000000000001</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C19">
         <v>0.080000000000000002</v>
       </c>
       <c r="D19">
-        <v>277.4710800000031</v>
+        <v>276.27119999999968</v>
       </c>
     </row>
     <row r="20">
@@ -354,13 +354,13 @@
         <v>50.100000000000001</v>
       </c>
       <c r="B20">
-        <v>4.0999999999999996</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C20">
         <v>0.080000000000000002</v>
       </c>
       <c r="D20">
-        <v>278.31096000000201</v>
+        <v>277.4710800000031</v>
       </c>
     </row>
     <row r="21">
@@ -368,27 +368,27 @@
         <v>50.100000000000001</v>
       </c>
       <c r="B21">
-        <v>5.0999999999999996</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C21">
         <v>0.080000000000000002</v>
       </c>
       <c r="D21">
-        <v>276.71084000000093</v>
+        <v>278.31096000000201</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>60.100000000000001</v>
+        <v>50.100000000000001</v>
       </c>
       <c r="B22">
-        <v>0.10000000000000001</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C22">
         <v>0.080000000000000002</v>
       </c>
       <c r="D22">
-        <v>231.43840000000199</v>
+        <v>276.71084000000093</v>
       </c>
     </row>
     <row r="23">
@@ -396,13 +396,13 @@
         <v>60.100000000000001</v>
       </c>
       <c r="B23">
-        <v>1.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C23">
         <v>0.080000000000000002</v>
       </c>
       <c r="D23">
-        <v>214.60393333333076</v>
+        <v>231.43840000000199</v>
       </c>
     </row>
     <row r="24">
@@ -410,13 +410,13 @@
         <v>60.100000000000001</v>
       </c>
       <c r="B24">
-        <v>2.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C24">
         <v>0.080000000000000002</v>
       </c>
       <c r="D24">
-        <v>202.62453333333377</v>
+        <v>214.60393333333076</v>
       </c>
     </row>
     <row r="25">
@@ -424,13 +424,13 @@
         <v>60.100000000000001</v>
       </c>
       <c r="B25">
-        <v>3.1000000000000001</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C25">
         <v>0.080000000000000002</v>
       </c>
       <c r="D25">
-        <v>246.58892000000026</v>
+        <v>202.62453333333377</v>
       </c>
     </row>
     <row r="26">
@@ -438,13 +438,13 @@
         <v>60.100000000000001</v>
       </c>
       <c r="B26">
-        <v>4.0999999999999996</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C26">
         <v>0.080000000000000002</v>
       </c>
       <c r="D26">
-        <v>239.58409999999606</v>
+        <v>246.58892000000026</v>
       </c>
     </row>
     <row r="27">
@@ -452,27 +452,27 @@
         <v>60.100000000000001</v>
       </c>
       <c r="B27">
-        <v>5.0999999999999996</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C27">
         <v>0.080000000000000002</v>
       </c>
       <c r="D27">
-        <v>240.60880000000179</v>
+        <v>239.58409999999606</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>70.099999999999994</v>
+        <v>60.100000000000001</v>
       </c>
       <c r="B28">
-        <v>0.10000000000000001</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C28">
         <v>0.080000000000000002</v>
       </c>
       <c r="D28">
-        <v>213.55032000000074</v>
+        <v>240.60880000000179</v>
       </c>
     </row>
     <row r="29">
@@ -480,13 +480,13 @@
         <v>70.099999999999994</v>
       </c>
       <c r="B29">
-        <v>1.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C29">
         <v>0.080000000000000002</v>
       </c>
       <c r="D29">
-        <v>201.47816000000171</v>
+        <v>213.55032000000074</v>
       </c>
     </row>
     <row r="30">
@@ -494,13 +494,13 @@
         <v>70.099999999999994</v>
       </c>
       <c r="B30">
-        <v>2.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C30">
         <v>0.080000000000000002</v>
       </c>
       <c r="D30">
-        <v>212.70945000000003</v>
+        <v>201.47816000000171</v>
       </c>
     </row>
     <row r="31">
@@ -508,13 +508,13 @@
         <v>70.099999999999994</v>
       </c>
       <c r="B31">
-        <v>3.1000000000000001</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C31">
         <v>0.080000000000000002</v>
       </c>
       <c r="D31">
-        <v>195.38788000000295</v>
+        <v>212.70945000000003</v>
       </c>
     </row>
     <row r="32">
@@ -522,13 +522,13 @@
         <v>70.099999999999994</v>
       </c>
       <c r="B32">
-        <v>4.0999999999999996</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C32">
         <v>0.080000000000000002</v>
       </c>
       <c r="D32">
-        <v>199.63670000000016</v>
+        <v>195.38788000000295</v>
       </c>
     </row>
     <row r="33">
@@ -536,27 +536,27 @@
         <v>70.099999999999994</v>
       </c>
       <c r="B33">
-        <v>5.0999999999999996</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C33">
         <v>0.080000000000000002</v>
       </c>
       <c r="D33">
-        <v>219.5191000000016</v>
+        <v>199.63670000000016</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>80.099999999999994</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="B34">
-        <v>0.10000000000000001</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C34">
         <v>0.080000000000000002</v>
       </c>
       <c r="D34">
-        <v>200.59662222222184</v>
+        <v>219.5191000000016</v>
       </c>
     </row>
     <row r="35">
@@ -564,13 +564,13 @@
         <v>80.099999999999994</v>
       </c>
       <c r="B35">
-        <v>1.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C35">
         <v>0.080000000000000002</v>
       </c>
       <c r="D35">
-        <v>200.60308000000052</v>
+        <v>200.59662222222184</v>
       </c>
     </row>
     <row r="36">
@@ -578,13 +578,13 @@
         <v>80.099999999999994</v>
       </c>
       <c r="B36">
-        <v>2.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C36">
         <v>0.080000000000000002</v>
       </c>
       <c r="D36">
-        <v>200.59381818181808</v>
+        <v>200.60308000000052</v>
       </c>
     </row>
     <row r="37">
@@ -592,13 +592,13 @@
         <v>80.099999999999994</v>
       </c>
       <c r="B37">
-        <v>3.1000000000000001</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C37">
         <v>0.080000000000000002</v>
       </c>
       <c r="D37">
-        <v>194.79444000000001</v>
+        <v>200.59381818181808</v>
       </c>
     </row>
     <row r="38">
@@ -606,13 +606,13 @@
         <v>80.099999999999994</v>
       </c>
       <c r="B38">
-        <v>4.0999999999999996</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C38">
         <v>0.080000000000000002</v>
       </c>
       <c r="D38">
-        <v>218.37399999999889</v>
+        <v>194.79444000000001</v>
       </c>
     </row>
     <row r="39">
@@ -620,27 +620,27 @@
         <v>80.099999999999994</v>
       </c>
       <c r="B39">
-        <v>5.0999999999999996</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C39">
         <v>0.080000000000000002</v>
       </c>
       <c r="D39">
-        <v>209.67835555555487</v>
+        <v>218.37399999999889</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>90.099999999999994</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="B40">
-        <v>0.10000000000000001</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C40">
         <v>0.080000000000000002</v>
       </c>
       <c r="D40">
-        <v>199.64952727272851</v>
+        <v>209.67835555555487</v>
       </c>
     </row>
     <row r="41">
@@ -648,13 +648,13 @@
         <v>90.099999999999994</v>
       </c>
       <c r="B41">
-        <v>1.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C41">
         <v>0.080000000000000002</v>
       </c>
       <c r="D41">
-        <v>226.46359999999822</v>
+        <v>199.64952727272851</v>
       </c>
     </row>
     <row r="42">
@@ -662,13 +662,13 @@
         <v>90.099999999999994</v>
       </c>
       <c r="B42">
-        <v>2.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C42">
         <v>0.080000000000000002</v>
       </c>
       <c r="D42">
-        <v>226.52219999999988</v>
+        <v>226.46359999999822</v>
       </c>
     </row>
     <row r="43">
@@ -676,13 +676,13 @@
         <v>90.099999999999994</v>
       </c>
       <c r="B43">
-        <v>3.1000000000000001</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C43">
         <v>0.080000000000000002</v>
       </c>
       <c r="D43">
-        <v>199.51755555555528</v>
+        <v>226.52219999999988</v>
       </c>
     </row>
     <row r="44">
@@ -690,13 +690,13 @@
         <v>90.099999999999994</v>
       </c>
       <c r="B44">
-        <v>4.0999999999999996</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C44">
         <v>0.080000000000000002</v>
       </c>
       <c r="D44">
-        <v>217.6790285714273</v>
+        <v>199.51755555555528</v>
       </c>
     </row>
     <row r="45">
@@ -704,27 +704,27 @@
         <v>90.099999999999994</v>
       </c>
       <c r="B45">
-        <v>5.0999999999999996</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C45">
         <v>0.080000000000000002</v>
       </c>
       <c r="D45">
-        <v>198.82980000000123</v>
+        <v>217.6790285714273</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>100.09999999999999</v>
+        <v>90.099999999999994</v>
       </c>
       <c r="B46">
-        <v>0.10000000000000001</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C46">
         <v>0.080000000000000002</v>
       </c>
       <c r="D46">
-        <v>198.63951999999915</v>
+        <v>198.82980000000123</v>
       </c>
     </row>
     <row r="47">
@@ -732,13 +732,13 @@
         <v>100.09999999999999</v>
       </c>
       <c r="B47">
-        <v>1.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C47">
         <v>0.080000000000000002</v>
       </c>
       <c r="D47">
-        <v>193.52544000000069</v>
+        <v>198.63951999999915</v>
       </c>
     </row>
     <row r="48">
@@ -746,13 +746,13 @@
         <v>100.09999999999999</v>
       </c>
       <c r="B48">
-        <v>2.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C48">
         <v>0.080000000000000002</v>
       </c>
       <c r="D48">
-        <v>198.66316666666705</v>
+        <v>193.52544000000069</v>
       </c>
     </row>
     <row r="49">
@@ -760,13 +760,13 @@
         <v>100.09999999999999</v>
       </c>
       <c r="B49">
-        <v>3.1000000000000001</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C49">
         <v>0.080000000000000002</v>
       </c>
       <c r="D49">
-        <v>198.54531999999926</v>
+        <v>198.66316666666705</v>
       </c>
     </row>
     <row r="50">
@@ -774,27 +774,27 @@
         <v>100.09999999999999</v>
       </c>
       <c r="B50">
-        <v>4.0999999999999996</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C50">
         <v>0.080000000000000002</v>
       </c>
       <c r="D50">
-        <v>198.9011000000005</v>
+        <v>198.54531999999926</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>110.09999999999999</v>
+        <v>100.09999999999999</v>
       </c>
       <c r="B51">
-        <v>0.10000000000000001</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C51">
         <v>0.080000000000000002</v>
       </c>
       <c r="D51">
-        <v>197.62084444444503</v>
+        <v>198.9011000000005</v>
       </c>
     </row>
     <row r="52">
@@ -802,13 +802,13 @@
         <v>110.09999999999999</v>
       </c>
       <c r="B52">
-        <v>1.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C52">
         <v>0.080000000000000002</v>
       </c>
       <c r="D52">
-        <v>192.32492000000204</v>
+        <v>197.62084444444503</v>
       </c>
     </row>
     <row r="53">
@@ -816,13 +816,13 @@
         <v>110.09999999999999</v>
       </c>
       <c r="B53">
-        <v>2.1000000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C53">
         <v>0.080000000000000002</v>
       </c>
       <c r="D53">
-        <v>192.62487999999874</v>
+        <v>192.32492000000204</v>
       </c>
     </row>
     <row r="54">
@@ -830,27 +830,27 @@
         <v>110.09999999999999</v>
       </c>
       <c r="B54">
-        <v>3.1000000000000001</v>
+        <v>2.1000000000000001</v>
       </c>
       <c r="C54">
         <v>0.080000000000000002</v>
       </c>
       <c r="D54">
-        <v>192.80480000000097</v>
+        <v>192.62487999999874</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>120.09999999999999</v>
+        <v>110.09999999999999</v>
       </c>
       <c r="B55">
-        <v>0.10000000000000001</v>
+        <v>3.1000000000000001</v>
       </c>
       <c r="C55">
         <v>0.080000000000000002</v>
       </c>
       <c r="D55">
-        <v>188.44805714285744</v>
+        <v>192.80480000000097</v>
       </c>
     </row>
     <row r="56">
@@ -858,12 +858,26 @@
         <v>120.09999999999999</v>
       </c>
       <c r="B56">
-        <v>1.1000000000000001</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C56">
         <v>0.080000000000000002</v>
       </c>
       <c r="D56">
+        <v>188.44805714285744</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>120.09999999999999</v>
+      </c>
+      <c r="B57">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C57">
+        <v>0.080000000000000002</v>
+      </c>
+      <c r="D57">
         <v>187.75817599999982</v>
       </c>
     </row>
